--- a/natmiOut/OldD7/LR-pairs_lrc2p/Bmp2-Bmpr2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Bmp2-Bmpr2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.78021944531617</v>
+        <v>5.423951666666667</v>
       </c>
       <c r="H2">
-        <v>2.78021944531617</v>
+        <v>16.271855</v>
       </c>
       <c r="I2">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413272</v>
       </c>
       <c r="J2">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413271</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.1803899858649</v>
+        <v>43.69574966666666</v>
       </c>
       <c r="N2">
-        <v>43.1803899858649</v>
+        <v>131.087249</v>
       </c>
       <c r="O2">
-        <v>0.3410641196217529</v>
+        <v>0.3365063034544351</v>
       </c>
       <c r="P2">
-        <v>0.3410641196217529</v>
+        <v>0.3365063034544351</v>
       </c>
       <c r="Q2">
-        <v>120.0509598950372</v>
+        <v>237.0036342307661</v>
       </c>
       <c r="R2">
-        <v>120.0509598950372</v>
+        <v>2133.032708076895</v>
       </c>
       <c r="S2">
-        <v>0.1454863803225165</v>
+        <v>0.1606544503741858</v>
       </c>
       <c r="T2">
-        <v>0.1454863803225165</v>
+        <v>0.1606544503741858</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.78021944531617</v>
+        <v>5.423951666666667</v>
       </c>
       <c r="H3">
-        <v>2.78021944531617</v>
+        <v>16.271855</v>
       </c>
       <c r="I3">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413272</v>
       </c>
       <c r="J3">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413271</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.7330820376084</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N3">
-        <v>46.7330820376084</v>
+        <v>140.44867</v>
       </c>
       <c r="O3">
-        <v>0.3691253712063667</v>
+        <v>0.3605374521727266</v>
       </c>
       <c r="P3">
-        <v>0.3691253712063667</v>
+        <v>0.3605374521727267</v>
       </c>
       <c r="Q3">
-        <v>129.9282234205147</v>
+        <v>253.9289325758722</v>
       </c>
       <c r="R3">
-        <v>129.9282234205147</v>
+        <v>2285.36039318285</v>
       </c>
       <c r="S3">
-        <v>0.1574563580642167</v>
+        <v>0.1721273736138547</v>
       </c>
       <c r="T3">
-        <v>0.1574563580642167</v>
+        <v>0.1721273736138547</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.78021944531617</v>
+        <v>5.423951666666667</v>
       </c>
       <c r="H4">
-        <v>2.78021944531617</v>
+        <v>16.271855</v>
       </c>
       <c r="I4">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413272</v>
       </c>
       <c r="J4">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413271</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.3729195252267</v>
+        <v>18.08903066666667</v>
       </c>
       <c r="N4">
-        <v>16.3729195252267</v>
+        <v>54.26709200000001</v>
       </c>
       <c r="O4">
-        <v>0.1293229492678794</v>
+        <v>0.1393058338430899</v>
       </c>
       <c r="P4">
-        <v>0.1293229492678794</v>
+        <v>0.1393058338430899</v>
       </c>
       <c r="Q4">
-        <v>45.52030924063206</v>
+        <v>98.11402803285112</v>
       </c>
       <c r="R4">
-        <v>45.52030924063206</v>
+        <v>883.02625229566</v>
       </c>
       <c r="S4">
-        <v>0.05516478192570394</v>
+        <v>0.06650723014765059</v>
       </c>
       <c r="T4">
-        <v>0.05516478192570394</v>
+        <v>0.06650723014765057</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.78021944531617</v>
+        <v>5.423951666666667</v>
       </c>
       <c r="H5">
-        <v>2.78021944531617</v>
+        <v>16.271855</v>
       </c>
       <c r="I5">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413272</v>
       </c>
       <c r="J5">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413271</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.3185120505201</v>
+        <v>21.25020333333334</v>
       </c>
       <c r="N5">
-        <v>20.3185120505201</v>
+        <v>63.75061</v>
       </c>
       <c r="O5">
-        <v>0.1604875599040009</v>
+        <v>0.1636504105297484</v>
       </c>
       <c r="P5">
-        <v>0.1604875599040009</v>
+        <v>0.1636504105297484</v>
       </c>
       <c r="Q5">
-        <v>56.4899223027469</v>
+        <v>115.2600757868389</v>
       </c>
       <c r="R5">
-        <v>56.4899223027469</v>
+        <v>1037.34068208155</v>
       </c>
       <c r="S5">
-        <v>0.0684585473345023</v>
+        <v>0.07812978980563606</v>
       </c>
       <c r="T5">
-        <v>0.0684585473345023</v>
+        <v>0.07812978980563606</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.5538614623364</v>
+        <v>1.583504333333333</v>
       </c>
       <c r="H6">
-        <v>1.5538614623364</v>
+        <v>4.750513</v>
       </c>
       <c r="I6">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="J6">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>43.1803899858649</v>
+        <v>43.69574966666666</v>
       </c>
       <c r="N6">
-        <v>43.1803899858649</v>
+        <v>131.087249</v>
       </c>
       <c r="O6">
-        <v>0.3410641196217529</v>
+        <v>0.3365063034544351</v>
       </c>
       <c r="P6">
-        <v>0.3410641196217529</v>
+        <v>0.3365063034544351</v>
       </c>
       <c r="Q6">
-        <v>67.09634392769208</v>
+        <v>69.19240894541521</v>
       </c>
       <c r="R6">
-        <v>67.09634392769208</v>
+        <v>622.7316805087369</v>
       </c>
       <c r="S6">
-        <v>0.081312171260016</v>
+        <v>0.04690252309957436</v>
       </c>
       <c r="T6">
-        <v>0.081312171260016</v>
+        <v>0.04690252309957436</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.5538614623364</v>
+        <v>1.583504333333333</v>
       </c>
       <c r="H7">
-        <v>1.5538614623364</v>
+        <v>4.750513</v>
       </c>
       <c r="I7">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="J7">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.7330820376084</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N7">
-        <v>46.7330820376084</v>
+        <v>140.44867</v>
       </c>
       <c r="O7">
-        <v>0.3691253712063667</v>
+        <v>0.3605374521727266</v>
       </c>
       <c r="P7">
-        <v>0.3691253712063667</v>
+        <v>0.3605374521727267</v>
       </c>
       <c r="Q7">
-        <v>72.61673519444513</v>
+        <v>74.13369251863443</v>
       </c>
       <c r="R7">
-        <v>72.61673519444513</v>
+        <v>667.2032326677099</v>
       </c>
       <c r="S7">
-        <v>0.08800217810432726</v>
+        <v>0.05025200421270185</v>
       </c>
       <c r="T7">
-        <v>0.08800217810432726</v>
+        <v>0.05025200421270185</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.5538614623364</v>
+        <v>1.583504333333333</v>
       </c>
       <c r="H8">
-        <v>1.5538614623364</v>
+        <v>4.750513</v>
       </c>
       <c r="I8">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="J8">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.3729195252267</v>
+        <v>18.08903066666667</v>
       </c>
       <c r="N8">
-        <v>16.3729195252267</v>
+        <v>54.26709200000001</v>
       </c>
       <c r="O8">
-        <v>0.1293229492678794</v>
+        <v>0.1393058338430899</v>
       </c>
       <c r="P8">
-        <v>0.1293229492678794</v>
+        <v>0.1393058338430899</v>
       </c>
       <c r="Q8">
-        <v>25.44124867618496</v>
+        <v>28.64405844646623</v>
       </c>
       <c r="R8">
-        <v>25.44124867618496</v>
+        <v>257.796526018196</v>
       </c>
       <c r="S8">
-        <v>0.03083153340897338</v>
+        <v>0.01941656076768174</v>
       </c>
       <c r="T8">
-        <v>0.03083153340897338</v>
+        <v>0.01941656076768174</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.5538614623364</v>
+        <v>1.583504333333333</v>
       </c>
       <c r="H9">
-        <v>1.5538614623364</v>
+        <v>4.750513</v>
       </c>
       <c r="I9">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="J9">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.3185120505201</v>
+        <v>21.25020333333334</v>
       </c>
       <c r="N9">
-        <v>20.3185120505201</v>
+        <v>63.75061</v>
       </c>
       <c r="O9">
-        <v>0.1604875599040009</v>
+        <v>0.1636504105297484</v>
       </c>
       <c r="P9">
-        <v>0.1604875599040009</v>
+        <v>0.1636504105297484</v>
       </c>
       <c r="Q9">
-        <v>31.57215284732093</v>
+        <v>33.64978906254778</v>
       </c>
       <c r="R9">
-        <v>31.57215284732093</v>
+        <v>302.84810156293</v>
       </c>
       <c r="S9">
-        <v>0.03826140366359401</v>
+        <v>0.02280972772673685</v>
       </c>
       <c r="T9">
-        <v>0.03826140366359401</v>
+        <v>0.02280972772673684</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.59625752450706</v>
+        <v>0.6660723333333333</v>
       </c>
       <c r="H10">
-        <v>0.59625752450706</v>
+        <v>1.998217</v>
       </c>
       <c r="I10">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="J10">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>43.1803899858649</v>
+        <v>43.69574966666666</v>
       </c>
       <c r="N10">
-        <v>43.1803899858649</v>
+        <v>131.087249</v>
       </c>
       <c r="O10">
-        <v>0.3410641196217529</v>
+        <v>0.3365063034544351</v>
       </c>
       <c r="P10">
-        <v>0.3410641196217529</v>
+        <v>0.3365063034544351</v>
       </c>
       <c r="Q10">
-        <v>25.74663244022125</v>
+        <v>29.10452993722588</v>
       </c>
       <c r="R10">
-        <v>25.74663244022125</v>
+        <v>261.940769435033</v>
       </c>
       <c r="S10">
-        <v>0.03120161939977055</v>
+        <v>0.01972869435373868</v>
       </c>
       <c r="T10">
-        <v>0.03120161939977055</v>
+        <v>0.01972869435373868</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.59625752450706</v>
+        <v>0.6660723333333333</v>
       </c>
       <c r="H11">
-        <v>0.59625752450706</v>
+        <v>1.998217</v>
       </c>
       <c r="I11">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="J11">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.7330820376084</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N11">
-        <v>46.7330820376084</v>
+        <v>140.44867</v>
       </c>
       <c r="O11">
-        <v>0.3691253712063667</v>
+        <v>0.3605374521727266</v>
       </c>
       <c r="P11">
-        <v>0.3691253712063667</v>
+        <v>0.3605374521727267</v>
       </c>
       <c r="Q11">
-        <v>27.86495180832974</v>
+        <v>31.18299111348777</v>
       </c>
       <c r="R11">
-        <v>27.86495180832974</v>
+        <v>280.64692002139</v>
       </c>
       <c r="S11">
-        <v>0.03376875103705722</v>
+        <v>0.02113759274038245</v>
       </c>
       <c r="T11">
-        <v>0.03376875103705722</v>
+        <v>0.02113759274038245</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.59625752450706</v>
+        <v>0.6660723333333333</v>
       </c>
       <c r="H12">
-        <v>0.59625752450706</v>
+        <v>1.998217</v>
       </c>
       <c r="I12">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="J12">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.3729195252267</v>
+        <v>18.08903066666667</v>
       </c>
       <c r="N12">
-        <v>16.3729195252267</v>
+        <v>54.26709200000001</v>
       </c>
       <c r="O12">
-        <v>0.1293229492678794</v>
+        <v>0.1393058338430899</v>
       </c>
       <c r="P12">
-        <v>0.1293229492678794</v>
+        <v>0.1393058338430899</v>
       </c>
       <c r="Q12">
-        <v>9.76247646506498</v>
+        <v>12.04860286388489</v>
       </c>
       <c r="R12">
-        <v>9.76247646506498</v>
+        <v>108.437425774964</v>
       </c>
       <c r="S12">
-        <v>0.01183087053304581</v>
+        <v>0.008167223583540283</v>
       </c>
       <c r="T12">
-        <v>0.01183087053304581</v>
+        <v>0.008167223583540285</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.59625752450706</v>
+        <v>0.6660723333333333</v>
       </c>
       <c r="H13">
-        <v>0.59625752450706</v>
+        <v>1.998217</v>
       </c>
       <c r="I13">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="J13">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.3185120505201</v>
+        <v>21.25020333333334</v>
       </c>
       <c r="N13">
-        <v>20.3185120505201</v>
+        <v>63.75061</v>
       </c>
       <c r="O13">
-        <v>0.1604875599040009</v>
+        <v>0.1636504105297484</v>
       </c>
       <c r="P13">
-        <v>0.1604875599040009</v>
+        <v>0.1636504105297484</v>
       </c>
       <c r="Q13">
-        <v>12.11506569690998</v>
+        <v>14.15417251804111</v>
       </c>
       <c r="R13">
-        <v>12.11506569690998</v>
+        <v>127.38755266237</v>
       </c>
       <c r="S13">
-        <v>0.01468190722634765</v>
+        <v>0.00959449762771661</v>
       </c>
       <c r="T13">
-        <v>0.01468190722634765</v>
+        <v>0.009594497627716612</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.58733762363322</v>
+        <v>3.687463666666666</v>
       </c>
       <c r="H14">
-        <v>1.58733762363322</v>
+        <v>11.062391</v>
       </c>
       <c r="I14">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="J14">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>43.1803899858649</v>
+        <v>43.69574966666666</v>
       </c>
       <c r="N14">
-        <v>43.1803899858649</v>
+        <v>131.087249</v>
       </c>
       <c r="O14">
-        <v>0.3410641196217529</v>
+        <v>0.3365063034544351</v>
       </c>
       <c r="P14">
-        <v>0.3410641196217529</v>
+        <v>0.3365063034544351</v>
       </c>
       <c r="Q14">
-        <v>68.54185762771847</v>
+        <v>161.1264892835954</v>
       </c>
       <c r="R14">
-        <v>68.54185762771847</v>
+        <v>1450.138403552359</v>
       </c>
       <c r="S14">
-        <v>0.08306394863944988</v>
+        <v>0.1092206356269362</v>
       </c>
       <c r="T14">
-        <v>0.08306394863944988</v>
+        <v>0.1092206356269362</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.58733762363322</v>
+        <v>3.687463666666666</v>
       </c>
       <c r="H15">
-        <v>1.58733762363322</v>
+        <v>11.062391</v>
       </c>
       <c r="I15">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="J15">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>46.7330820376084</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N15">
-        <v>46.7330820376084</v>
+        <v>140.44867</v>
       </c>
       <c r="O15">
-        <v>0.3691253712063667</v>
+        <v>0.3605374521727266</v>
       </c>
       <c r="P15">
-        <v>0.3691253712063667</v>
+        <v>0.3605374521727267</v>
       </c>
       <c r="Q15">
-        <v>74.18117938663363</v>
+        <v>172.6331225522189</v>
       </c>
       <c r="R15">
-        <v>74.18117938663363</v>
+        <v>1553.69810296997</v>
       </c>
       <c r="S15">
-        <v>0.08989808400076563</v>
+        <v>0.1170204816057876</v>
       </c>
       <c r="T15">
-        <v>0.08989808400076563</v>
+        <v>0.1170204816057877</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.58733762363322</v>
+        <v>3.687463666666666</v>
       </c>
       <c r="H16">
-        <v>1.58733762363322</v>
+        <v>11.062391</v>
       </c>
       <c r="I16">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="J16">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.3729195252267</v>
+        <v>18.08903066666667</v>
       </c>
       <c r="N16">
-        <v>16.3729195252267</v>
+        <v>54.26709200000001</v>
       </c>
       <c r="O16">
-        <v>0.1293229492678794</v>
+        <v>0.1393058338430899</v>
       </c>
       <c r="P16">
-        <v>0.1293229492678794</v>
+        <v>0.1393058338430899</v>
       </c>
       <c r="Q16">
-        <v>25.9893511711113</v>
+        <v>66.70264334855246</v>
       </c>
       <c r="R16">
-        <v>25.9893511711113</v>
+        <v>600.3237901369721</v>
       </c>
       <c r="S16">
-        <v>0.03149576340015624</v>
+        <v>0.04521481934421726</v>
       </c>
       <c r="T16">
-        <v>0.03149576340015624</v>
+        <v>0.04521481934421727</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.58733762363322</v>
+        <v>3.687463666666666</v>
       </c>
       <c r="H17">
-        <v>1.58733762363322</v>
+        <v>11.062391</v>
       </c>
       <c r="I17">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="J17">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.3185120505201</v>
+        <v>21.25020333333334</v>
       </c>
       <c r="N17">
-        <v>20.3185120505201</v>
+        <v>63.75061</v>
       </c>
       <c r="O17">
-        <v>0.1604875599040009</v>
+        <v>0.1636504105297484</v>
       </c>
       <c r="P17">
-        <v>0.1604875599040009</v>
+        <v>0.1636504105297484</v>
       </c>
       <c r="Q17">
-        <v>32.25233863403552</v>
+        <v>78.35935270094556</v>
       </c>
       <c r="R17">
-        <v>32.25233863403552</v>
+        <v>705.23417430851</v>
       </c>
       <c r="S17">
-        <v>0.03908570167955697</v>
+        <v>0.05311639536965884</v>
       </c>
       <c r="T17">
-        <v>0.03908570167955697</v>
+        <v>0.05311639536965885</v>
       </c>
     </row>
   </sheetData>
